--- a/data/trans_bre/P1429-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1429-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.121574500732859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.333428373817436</v>
+        <v>2.333428373817435</v>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         <v>15.10557165307886</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>3.176112893136764</v>
+        <v>3.176112893136761</v>
       </c>
     </row>
     <row r="5">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.212629802606275</v>
+        <v>1.087865844196483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.214536893043936</v>
+        <v>2.22722223258635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.929625467650872</v>
+        <v>1.986602478755302</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7183078103013092</v>
+        <v>0.7809157520253559</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>0.2455065449624101</v>
+        <v>0.2415061723658608</v>
       </c>
     </row>
     <row r="6">
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.956265325731662</v>
+        <v>5.418001309975974</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.628538149742242</v>
+        <v>7.412820633473793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.92850305859771</v>
+        <v>7.341054535928028</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.97443487864697</v>
+        <v>3.975931668739006</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>14.49547270651908</v>
+        <v>18.2521798585512</v>
       </c>
     </row>
     <row r="7">
@@ -752,20 +752,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.697776370132979</v>
+        <v>4.774977190414896</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2379554961295409</v>
+        <v>0.5460897466547343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.82769784496199</v>
+        <v>1.913615040798391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.938611785296599</v>
+        <v>1.951667266724985</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.4383631534482123</v>
+        <v>-0.3896660514434717</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.209580444348662</v>
+        <v>9.509354825754436</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.011368385548728</v>
+        <v>4.28168046953614</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.493201698981476</v>
+        <v>5.252013074570204</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.462024186927263</v>
+        <v>4.475813083237428</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -815,7 +815,7 @@
         <v>1.564307136388474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.4037869187793</v>
+        <v>4.403786918779299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>11.79386968019195</v>
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.840073105035845</v>
+        <v>1.844282707866032</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9515383332465621</v>
+        <v>0.9534587560848561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5461859522385158</v>
+        <v>0.3733197576246784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.758393743228033</v>
+        <v>2.75404568088865</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.292499661977071</v>
+        <v>6.242284219533598</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.350925001756926</v>
+        <v>5.210343241828273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.147329646807744</v>
+        <v>4.214421896098595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.212607690942956</v>
+        <v>6.366690896258698</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -901,7 +901,7 @@
         <v>5.948993841998227</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.950473386324086</v>
+        <v>5.950473386324087</v>
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
@@ -928,24 +928,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.417807383469885</v>
+        <v>2.409893173667677</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.287108215387377</v>
+        <v>5.318169367487138</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.40363517370717</v>
+        <v>3.36304826003861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.768156521847579</v>
+        <v>2.725441414749326</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>2.030019986500251</v>
+        <v>2.176600904663979</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2666262797160395</v>
+        <v>0.209922801012632</v>
       </c>
     </row>
     <row r="15">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.356006770995501</v>
+        <v>6.265257474554529</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.79886870315427</v>
+        <v>10.85495949112265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.632502333512177</v>
+        <v>9.405220441386435</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.919931888339855</v>
+        <v>8.762437815802695</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>10.33772469427701</v>
+        <v>10.50469138299172</v>
       </c>
     </row>
     <row r="16">
@@ -995,7 +995,7 @@
         <v>0.988620253208307</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.962127291099734</v>
+        <v>3.962127291099733</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>2.957687561310262</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="J16" s="6" t="n">
-        <v>5.085716785883661</v>
+        <v>5.08571678588366</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3285261608272804</v>
+        <v>-0.2493521777449259</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.472185580354228</v>
+        <v>1.808866230268178</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.18029206865902</v>
+        <v>2.264431892765265</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>0.8664150512643132</v>
+        <v>1.094635021565519</v>
       </c>
     </row>
     <row r="18">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.675225712326943</v>
+        <v>3.88324221947171</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.945111895604687</v>
+        <v>6.987106126677222</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.432242325389698</v>
+        <v>3.895233994567972</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.067941988786936</v>
+        <v>5.973359702677651</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>22.81696550669324</v>
+        <v>24.5280769653881</v>
       </c>
     </row>
     <row r="19">
@@ -1114,24 +1114,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.278115530419957</v>
+        <v>2.257666089343414</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7643392075947637</v>
+        <v>0.7435619377381365</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.6042251132078313</v>
+        <v>-0.956134325123998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.635359439113159</v>
+        <v>2.035700647960363</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.674941116703313</v>
+        <v>-0.7513287134914535</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.8051398838978722</v>
+        <v>0.5510950693683037</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1142,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.38745828391011</v>
+        <v>7.150264608452684</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.472344945256302</v>
+        <v>4.819953731561919</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.566299509780199</v>
+        <v>3.582584688809921</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.156977569864674</v>
+        <v>6.779060237466557</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>10.04278259921553</v>
+        <v>7.814477982104753</v>
       </c>
     </row>
     <row r="22">
@@ -1181,7 +1181,7 @@
         <v>3.83814656876638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.931544051910906</v>
+        <v>4.931544051910908</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>4.651042609015612</v>
@@ -1193,7 +1193,7 @@
         <v>5.007035390923248</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6.906746390007013</v>
+        <v>6.906746390007017</v>
       </c>
     </row>
     <row r="23">
@@ -1204,26 +1204,26 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.58831355478006</v>
+        <v>1.505944714433828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.835956533858371</v>
+        <v>2.740101582994989</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.255172442299063</v>
+        <v>2.122796896644967</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.497641758247817</v>
+        <v>3.526131416261062</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.894658417060456</v>
+        <v>0.989821854447554</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>1.391211688422082</v>
+        <v>1.334823194444318</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2.195848599250482</v>
+        <v>2.15237287644777</v>
       </c>
     </row>
     <row r="24">
@@ -1234,26 +1234,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.593646331048904</v>
+        <v>4.782334510422389</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.145023737930029</v>
+        <v>5.910141318896493</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.805870020811936</v>
+        <v>5.685532600183095</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.536423161500513</v>
+        <v>6.598661073856814</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>20.78653332018757</v>
+        <v>23.13661115925714</v>
       </c>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="n">
-        <v>17.09209594600709</v>
+        <v>17.98138337704782</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>21.22956415104277</v>
+        <v>24.12852689979648</v>
       </c>
     </row>
     <row r="25">
@@ -1300,24 +1300,24 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9040325134369602</v>
+        <v>-0.9464138345542532</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.242574266765109</v>
+        <v>2.366101877483217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.488071850294636</v>
+        <v>1.410475812334818</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.417138086123498</v>
+        <v>1.54361276827976</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2105384983235064</v>
+        <v>-0.2195906619294665</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>0.8907483123512079</v>
+        <v>0.9780723961102196</v>
       </c>
     </row>
     <row r="27">
@@ -1328,24 +1328,24 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.257694575781647</v>
+        <v>3.24517214030312</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.052401852459744</v>
+        <v>5.061701398036454</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.917769433918826</v>
+        <v>3.755818320629031</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.82025631121446</v>
+        <v>3.837424669095916</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.172531859566039</v>
+        <v>1.199394134935902</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>8.999402804049792</v>
+        <v>9.39057144937213</v>
       </c>
     </row>
     <row r="28">
@@ -1369,7 +1369,7 @@
         <v>3.099701764388445</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.915209471413301</v>
+        <v>3.915209471413299</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>3.164749854761275</v>
@@ -1381,7 +1381,7 @@
         <v>8.937746284874166</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>4.677595178023969</v>
+        <v>4.677595178023967</v>
       </c>
     </row>
     <row r="29">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.485326779581507</v>
+        <v>2.547602437218084</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.179606813704171</v>
+        <v>3.216416960037918</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.469512623597936</v>
+        <v>2.538001419721076</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.275863811062002</v>
+        <v>3.280733195937365</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.823051344878582</v>
+        <v>1.88178594012663</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>6.630498234057054</v>
+        <v>7.46881800320053</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>4.747546493167026</v>
+        <v>4.812689254884448</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>2.747551842849805</v>
+        <v>2.687227510391117</v>
       </c>
     </row>
     <row r="30">
@@ -1424,28 +1424,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.046601026104701</v>
+        <v>4.052304000499627</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.517887695315554</v>
+        <v>4.64884491620016</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.793892267460397</v>
+        <v>3.921483684994705</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.503461567079555</v>
+        <v>4.535077260991478</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5.167320626873993</v>
+        <v>4.999481685988195</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>59.14356745841123</v>
+        <v>62.68166562639213</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>19.09565160986649</v>
+        <v>18.91708646992725</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>7.335864083704617</v>
+        <v>7.332924638621527</v>
       </c>
     </row>
     <row r="31">
